--- a/testCase.xlsx
+++ b/testCase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DevilR\Documents\GitHub\Carguru\"/>
     </mc:Choice>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -52,13 +52,20 @@
   </si>
   <si>
     <t>mehedikabir007@gmail.com</t>
+  </si>
+  <si>
+    <t>© 2019 CarGurus, Inc., All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>Find great deals from top-rated dealersTM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,8 +455,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.36328125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="39.3263671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.75">
@@ -492,9 +499,19 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
